--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_11_11.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_11_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-872131.7674996357</v>
+        <v>-874886.6584870392</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11170848.91344482</v>
+        <v>11390440.55724542</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673429</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13916532.56047112</v>
+        <v>13908105.94745767</v>
       </c>
     </row>
     <row r="11">
@@ -659,7 +659,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -671,13 +671,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.9008012965642</v>
+        <v>13.20414671909173</v>
       </c>
       <c r="H2" t="n">
-        <v>153.1220234586251</v>
+        <v>306.726079507079</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>129.5699679059456</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,22 +710,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>215.3591553234879</v>
+        <v>213.9092683544517</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2334980103508</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -744,19 +744,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>67.14918625790592</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.5934151572083</v>
+        <v>136.2206720971956</v>
       </c>
       <c r="H3" t="n">
-        <v>104.9910380206319</v>
+        <v>101.3911247831404</v>
       </c>
       <c r="I3" t="n">
-        <v>63.57075238159807</v>
+        <v>50.73727421887875</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,16 +783,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>53.5857113589196</v>
+        <v>30.44294487847952</v>
       </c>
       <c r="S3" t="n">
-        <v>157.7503553344525</v>
+        <v>150.8268164785141</v>
       </c>
       <c r="T3" t="n">
-        <v>197.1412912232596</v>
+        <v>195.6388751173311</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8920332647905</v>
+        <v>225.8675106950528</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -804,7 +804,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>66.7874231075418</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7492584876844</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>7.336349713812055</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.2586407700247</v>
+        <v>223.9234337488977</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2676826882434</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>173.5618384565766</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>243.6341982411635</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>412.9169039459368</v>
+        <v>12.9169039459368</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I5" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -953,13 +953,13 @@
         <v>251.1547862223006</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>66.92943216844733</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -987,13 +987,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.0669836643703</v>
+        <v>65.52699321158184</v>
       </c>
       <c r="H6" t="n">
         <v>99.90681807664345</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>45.44580843958667</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1023,7 +1023,7 @@
         <v>20.90078060183509</v>
       </c>
       <c r="S6" t="n">
-        <v>122.87793923279</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T6" t="n">
         <v>195.0194028815133</v>
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>38.72992959179345</v>
       </c>
       <c r="H7" t="n">
         <v>152.7120966692326</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>101.9310580655683</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>284.8646218749039</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1145,13 +1145,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>286.0988571578287</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,22 +1342,22 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>35.03934478151456</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>72.85117456630657</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1379,16 +1379,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>82.53396077417955</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>285.8164330079421</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>8.482551351982806</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,19 +1418,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>89.62643247704837</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>200.1602205374496</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9264980655442</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>249.797330597838</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1461,13 +1461,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.5401720121956</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>85.16103185695626</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>3.0036982654902</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,16 +1494,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
-        <v>119.61226446108</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T12" t="n">
-        <v>188.8652804764758</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7569514789344</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1534,19 +1534,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>84.7726369553623</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>3.374456871988059</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>217.9036958833023</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1908349708103</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>18.69174667297927</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>108.9501037550972</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>66.43694060668919</v>
       </c>
     </row>
     <row r="17">
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -2014,13 +2014,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>98.99704524587848</v>
       </c>
       <c r="I19" t="n">
-        <v>81.11398998229677</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2084,7 +2084,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206816</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2239,19 +2239,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>31.39650288673285</v>
       </c>
       <c r="D22" t="n">
-        <v>98.00068573248018</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2485,16 +2485,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>53.8291382214997</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,13 +2524,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>186.9166231085223</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>48.4745767553167</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2770,10 +2770,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>27.6842674365317</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>103.8784673763403</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>52.91369288257662</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3010,7 +3010,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3190,7 +3190,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>76.17049831699767</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -3202,7 +3202,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3241,7 +3241,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>155.6850131498963</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3329,7 +3329,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784677</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3424,25 +3424,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541849</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,25 +3469,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352484</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972045</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V37" t="n">
         <v>227.8529958317883</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y37" t="n">
         <v>194.3000058600551</v>
@@ -3503,10 +3503,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3661,25 +3661,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.010065354184</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,25 +3706,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808194</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972045</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V40" t="n">
         <v>227.8529958317883</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3749,7 +3749,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3898,25 +3898,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652587</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,25 +3943,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808202</v>
+        <v>42.09059921808194</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972045</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V43" t="n">
         <v>227.8529958317883</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4028,7 +4028,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
         <v>250.9057009881286</v>
@@ -4037,7 +4037,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174118</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4135,25 +4135,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C46" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261734</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G46" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,25 +4180,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808203</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
-        <v>261.8998268972045</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V46" t="n">
         <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X46" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y46" t="n">
         <v>194.3000058600551</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>999.905132293163</v>
+        <v>512.2328874506575</v>
       </c>
       <c r="C2" t="n">
-        <v>630.9426153527513</v>
+        <v>512.2328874506575</v>
       </c>
       <c r="D2" t="n">
-        <v>630.9426153527513</v>
+        <v>512.2328874506575</v>
       </c>
       <c r="E2" t="n">
-        <v>630.9426153527513</v>
+        <v>512.2328874506575</v>
       </c>
       <c r="F2" t="n">
-        <v>623.9971146035479</v>
+        <v>505.287386701454</v>
       </c>
       <c r="G2" t="n">
-        <v>205.9154971322709</v>
+        <v>491.9498647629775</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800312</v>
+        <v>182.1255420285542</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>157.2146983965565</v>
+        <v>215.751107976862</v>
       </c>
       <c r="K2" t="n">
-        <v>436.7779331278826</v>
+        <v>262.1412882248054</v>
       </c>
       <c r="L2" t="n">
-        <v>835.8774740265424</v>
+        <v>770.0787731856049</v>
       </c>
       <c r="M2" t="n">
-        <v>1296.559156998187</v>
+        <v>1351.863639753094</v>
       </c>
       <c r="N2" t="n">
-        <v>1750.063153682372</v>
+        <v>1928.430396153184</v>
       </c>
       <c r="O2" t="n">
-        <v>2133.106480061285</v>
+        <v>2050.686217432691</v>
       </c>
       <c r="P2" t="n">
-        <v>2422.350714197592</v>
+        <v>2439.108452637171</v>
       </c>
       <c r="Q2" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2344.804828073401</v>
+        <v>2346.269360365356</v>
       </c>
       <c r="U2" t="n">
-        <v>2091.033617961935</v>
+        <v>2346.269360365356</v>
       </c>
       <c r="V2" t="n">
-        <v>1759.970730618365</v>
+        <v>2015.206473021785</v>
       </c>
       <c r="W2" t="n">
-        <v>1759.970730618365</v>
+        <v>1662.437817751671</v>
       </c>
       <c r="X2" t="n">
-        <v>1386.504972357285</v>
+        <v>1288.972059490591</v>
       </c>
       <c r="Y2" t="n">
-        <v>1386.504972357285</v>
+        <v>898.8327275147792</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.6438198621219</v>
+        <v>880.2579323290729</v>
       </c>
       <c r="C3" t="n">
-        <v>814.1907905809949</v>
+        <v>705.8049030479459</v>
       </c>
       <c r="D3" t="n">
-        <v>665.2563809197436</v>
+        <v>556.8704933866946</v>
       </c>
       <c r="E3" t="n">
-        <v>506.0189259142882</v>
+        <v>489.043032520123</v>
       </c>
       <c r="F3" t="n">
-        <v>359.4843679411731</v>
+        <v>342.5084745470079</v>
       </c>
       <c r="G3" t="n">
-        <v>221.5112213177303</v>
+        <v>204.9118360649922</v>
       </c>
       <c r="H3" t="n">
-        <v>115.4596677615365</v>
+        <v>102.4965585062645</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>120.6671692172148</v>
+        <v>155.5310537486932</v>
       </c>
       <c r="K3" t="n">
-        <v>365.9385033953937</v>
+        <v>333.846785324806</v>
       </c>
       <c r="L3" t="n">
-        <v>757.1404768473999</v>
+        <v>805.1720865578269</v>
       </c>
       <c r="M3" t="n">
-        <v>1110.608834961431</v>
+        <v>1407.165703758816</v>
       </c>
       <c r="N3" t="n">
-        <v>1648.267630359544</v>
+        <v>2040.799314106659</v>
       </c>
       <c r="O3" t="n">
-        <v>2073.704709726016</v>
+        <v>2164.110902866124</v>
       </c>
       <c r="P3" t="n">
-        <v>2398.152405435665</v>
+        <v>2559.024398897556</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
-        <v>2508.21234722953</v>
+        <v>2531.588879027954</v>
       </c>
       <c r="S3" t="n">
-        <v>2348.868553962406</v>
+        <v>2379.238559352687</v>
       </c>
       <c r="T3" t="n">
-        <v>2149.735936565174</v>
+        <v>2181.623533981645</v>
       </c>
       <c r="U3" t="n">
-        <v>1921.562165590638</v>
+        <v>1953.474533279572</v>
       </c>
       <c r="V3" t="n">
-        <v>1686.410057358896</v>
+        <v>1718.322425047829</v>
       </c>
       <c r="W3" t="n">
-        <v>1432.172700630694</v>
+        <v>1464.085068319628</v>
       </c>
       <c r="X3" t="n">
-        <v>1224.321200425161</v>
+        <v>1256.233568114095</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.85915688219</v>
+        <v>1048.473269349141</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>51.24678656800312</v>
+        <v>197.4581587777854</v>
       </c>
       <c r="C4" t="n">
-        <v>51.24678656800312</v>
+        <v>197.4581587777854</v>
       </c>
       <c r="D4" t="n">
-        <v>51.24678656800312</v>
+        <v>197.4581587777854</v>
       </c>
       <c r="E4" t="n">
-        <v>51.24678656800312</v>
+        <v>197.4581587777854</v>
       </c>
       <c r="F4" t="n">
-        <v>51.24678656800312</v>
+        <v>197.4581587777854</v>
       </c>
       <c r="G4" t="n">
-        <v>51.24678656800312</v>
+        <v>197.4581587777854</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="K4" t="n">
-        <v>101.5315041582452</v>
+        <v>137.4747089937842</v>
       </c>
       <c r="L4" t="n">
-        <v>221.4050648543856</v>
+        <v>303.3431970671081</v>
       </c>
       <c r="M4" t="n">
-        <v>358.1840501895424</v>
+        <v>488.6173843568189</v>
       </c>
       <c r="N4" t="n">
-        <v>497.1453533913465</v>
+        <v>674.9207820028037</v>
       </c>
       <c r="O4" t="n">
-        <v>609.4823129223978</v>
+        <v>830.9858282930851</v>
       </c>
       <c r="P4" t="n">
-        <v>682.0853063817793</v>
+        <v>941.0057542354095</v>
       </c>
       <c r="Q4" t="n">
-        <v>682.0853063817793</v>
+        <v>933.5952999790337</v>
       </c>
       <c r="R4" t="n">
-        <v>682.0853063817793</v>
+        <v>933.5952999790337</v>
       </c>
       <c r="S4" t="n">
-        <v>682.0853063817793</v>
+        <v>933.5952999790337</v>
       </c>
       <c r="T4" t="n">
-        <v>454.5513258059968</v>
+        <v>707.4100133639856</v>
       </c>
       <c r="U4" t="n">
-        <v>454.5513258059968</v>
+        <v>418.2507379213155</v>
       </c>
       <c r="V4" t="n">
-        <v>454.5513258059968</v>
+        <v>418.2507379213155</v>
       </c>
       <c r="W4" t="n">
-        <v>279.2363374660205</v>
+        <v>418.2507379213155</v>
       </c>
       <c r="X4" t="n">
-        <v>51.24678656800312</v>
+        <v>418.2507379213155</v>
       </c>
       <c r="Y4" t="n">
-        <v>51.24678656800312</v>
+        <v>197.4581587777854</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1753.764213259728</v>
+        <v>1039.598334046819</v>
       </c>
       <c r="C5" t="n">
-        <v>1384.801696319317</v>
+        <v>1039.598334046819</v>
       </c>
       <c r="D5" t="n">
-        <v>1384.801696319317</v>
+        <v>1039.598334046819</v>
       </c>
       <c r="E5" t="n">
-        <v>999.0134437210725</v>
+        <v>793.5031843082697</v>
       </c>
       <c r="F5" t="n">
-        <v>588.0275389314648</v>
+        <v>382.5172795186621</v>
       </c>
       <c r="G5" t="n">
-        <v>170.9397571678923</v>
+        <v>369.4699017954936</v>
       </c>
       <c r="H5" t="n">
-        <v>170.9397571678923</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>72.48103656138642</v>
+        <v>72.4810365613864</v>
       </c>
       <c r="K5" t="n">
         <v>475.9481495814319</v>
       </c>
       <c r="L5" t="n">
-        <v>833.2158137333569</v>
+        <v>668.8456576791481</v>
       </c>
       <c r="M5" t="n">
-        <v>1464.933624716669</v>
+        <v>1300.56346866246</v>
       </c>
       <c r="N5" t="n">
-        <v>1659.267837608651</v>
+        <v>1927.871136722306</v>
       </c>
       <c r="O5" t="n">
-        <v>2206.429042375728</v>
+        <v>2098.040162039266</v>
       </c>
       <c r="P5" t="n">
-        <v>2317.163367625255</v>
+        <v>2527.35520837856</v>
       </c>
       <c r="Q5" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2406.124290896984</v>
+        <v>2406.124290896983</v>
       </c>
       <c r="T5" t="n">
-        <v>2406.124290896984</v>
+        <v>2406.124290896983</v>
       </c>
       <c r="U5" t="n">
-        <v>2152.432587642135</v>
+        <v>2152.432587642134</v>
       </c>
       <c r="V5" t="n">
-        <v>1821.369700298564</v>
+        <v>2152.432587642134</v>
       </c>
       <c r="W5" t="n">
-        <v>1821.369700298564</v>
+        <v>1799.66393237202</v>
       </c>
       <c r="X5" t="n">
-        <v>1753.764213259728</v>
+        <v>1426.19817411094</v>
       </c>
       <c r="Y5" t="n">
-        <v>1753.764213259728</v>
+        <v>1426.19817411094</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>918.7636139849254</v>
+        <v>893.4159553857316</v>
       </c>
       <c r="C6" t="n">
-        <v>744.3105847037984</v>
+        <v>718.9629261046047</v>
       </c>
       <c r="D6" t="n">
-        <v>595.3761750425472</v>
+        <v>570.0285164433534</v>
       </c>
       <c r="E6" t="n">
-        <v>436.1387200370916</v>
+        <v>410.7910614378979</v>
       </c>
       <c r="F6" t="n">
-        <v>289.6041620639766</v>
+        <v>264.2565034647829</v>
       </c>
       <c r="G6" t="n">
-        <v>152.1627644231985</v>
+        <v>198.067621432882</v>
       </c>
       <c r="H6" t="n">
-        <v>51.24678656800312</v>
+        <v>97.15164357768663</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="K6" t="n">
         <v>380.675190873813</v>
       </c>
       <c r="L6" t="n">
-        <v>885.0367307399315</v>
+        <v>517.904788889507</v>
       </c>
       <c r="M6" t="n">
-        <v>1367.541868311954</v>
+        <v>1152.083772668545</v>
       </c>
       <c r="N6" t="n">
-        <v>1566.198609964619</v>
+        <v>1673.500236059666</v>
       </c>
       <c r="O6" t="n">
-        <v>2115.634618717342</v>
+        <v>2222.936244812389</v>
       </c>
       <c r="P6" t="n">
-        <v>2539.602387198179</v>
+        <v>2331.625872339688</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
-        <v>2541.227428802343</v>
+        <v>2541.227428802342</v>
       </c>
       <c r="S6" t="n">
-        <v>2417.108298264171</v>
+        <v>2391.760639664977</v>
       </c>
       <c r="T6" t="n">
-        <v>2220.119002424259</v>
+        <v>2194.771343825065</v>
       </c>
       <c r="U6" t="n">
-        <v>1991.980214935424</v>
+        <v>1966.632556336231</v>
       </c>
       <c r="V6" t="n">
-        <v>1756.828106703682</v>
+        <v>1731.480448104488</v>
       </c>
       <c r="W6" t="n">
-        <v>1502.59074997548</v>
+        <v>1477.243091376286</v>
       </c>
       <c r="X6" t="n">
-        <v>1294.739249769947</v>
+        <v>1269.391591170754</v>
       </c>
       <c r="Y6" t="n">
-        <v>1086.978951004993</v>
+        <v>1061.6312924058</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>355.6180690805737</v>
+        <v>244.6225706700496</v>
       </c>
       <c r="C7" t="n">
-        <v>355.6180690805737</v>
+        <v>244.6225706700496</v>
       </c>
       <c r="D7" t="n">
-        <v>205.501429668238</v>
+        <v>244.6225706700496</v>
       </c>
       <c r="E7" t="n">
-        <v>205.501429668238</v>
+        <v>244.6225706700496</v>
       </c>
       <c r="F7" t="n">
-        <v>205.501429668238</v>
+        <v>244.6225706700496</v>
       </c>
       <c r="G7" t="n">
         <v>205.501429668238</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="K7" t="n">
         <v>152.2947161636129</v>
@@ -4747,28 +4747,28 @@
         <v>1051.181468027348</v>
       </c>
       <c r="R7" t="n">
-        <v>920.7035067467505</v>
+        <v>1051.181468027348</v>
       </c>
       <c r="S7" t="n">
-        <v>713.2632219991558</v>
+        <v>1051.181468027348</v>
       </c>
       <c r="T7" t="n">
-        <v>713.2632219991558</v>
+        <v>1051.181468027348</v>
       </c>
       <c r="U7" t="n">
-        <v>610.3025572864606</v>
+        <v>762.0292916050275</v>
       </c>
       <c r="V7" t="n">
-        <v>355.6180690805737</v>
+        <v>762.0292916050275</v>
       </c>
       <c r="W7" t="n">
-        <v>355.6180690805737</v>
+        <v>472.6121215680669</v>
       </c>
       <c r="X7" t="n">
-        <v>355.6180690805737</v>
+        <v>244.6225706700496</v>
       </c>
       <c r="Y7" t="n">
-        <v>355.6180690805737</v>
+        <v>244.6225706700496</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4778,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1553.305894864461</v>
+        <v>1588.383781964454</v>
       </c>
       <c r="C8" t="n">
-        <v>1184.34337792405</v>
+        <v>1588.383781964454</v>
       </c>
       <c r="D8" t="n">
-        <v>826.0776793172993</v>
+        <v>1230.118083357703</v>
       </c>
       <c r="E8" t="n">
-        <v>440.289426719055</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F8" t="n">
-        <v>433.3439259698515</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G8" t="n">
-        <v>421.6795797345445</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H8" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
         <v>795.7553530872915</v>
@@ -4817,16 +4817,16 @@
         <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
         <v>2437.640120926626</v>
@@ -4841,13 +4841,13 @@
         <v>2228.894479532451</v>
       </c>
       <c r="W8" t="n">
-        <v>2228.894479532451</v>
+        <v>1876.125824262336</v>
       </c>
       <c r="X8" t="n">
-        <v>2228.894479532451</v>
+        <v>1876.125824262336</v>
       </c>
       <c r="Y8" t="n">
-        <v>1939.905734928583</v>
+        <v>1876.125824262336</v>
       </c>
     </row>
     <row r="9">
@@ -4857,55 +4857,55 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488047</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756898</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
         <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310613</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L9" t="n">
-        <v>593.0223835625329</v>
+        <v>593.0223835625332</v>
       </c>
       <c r="M9" t="n">
-        <v>956.284402521753</v>
+        <v>956.2844025217532</v>
       </c>
       <c r="N9" t="n">
-        <v>1343.569531118698</v>
+        <v>1565.661695681274</v>
       </c>
       <c r="O9" t="n">
-        <v>1884.562538506775</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.02341329261</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S9" t="n">
         <v>2426.617474780096</v>
@@ -4920,10 +4920,10 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,40 +4936,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>535.0593816855418</v>
+        <v>792.8801184070676</v>
       </c>
       <c r="C10" t="n">
-        <v>366.1231987576349</v>
+        <v>623.9439354791607</v>
       </c>
       <c r="D10" t="n">
-        <v>366.1231987576349</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="E10" t="n">
-        <v>366.1231987576349</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="F10" t="n">
-        <v>219.2332512597245</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800312</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800312</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312199</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4990,22 +4990,22 @@
         <v>1337.233965749941</v>
       </c>
       <c r="T10" t="n">
-        <v>1114.255484944676</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="U10" t="n">
-        <v>825.137147448514</v>
+        <v>1048.115628253779</v>
       </c>
       <c r="V10" t="n">
-        <v>570.4526592426272</v>
+        <v>1048.115628253779</v>
       </c>
       <c r="W10" t="n">
-        <v>535.0593816855418</v>
+        <v>1048.115628253779</v>
       </c>
       <c r="X10" t="n">
-        <v>535.0593816855418</v>
+        <v>1048.115628253779</v>
       </c>
       <c r="Y10" t="n">
-        <v>535.0593816855418</v>
+        <v>974.5285832373073</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1992.087692769615</v>
+        <v>1519.109083729354</v>
       </c>
       <c r="C11" t="n">
-        <v>1623.125175829203</v>
+        <v>1150.146566788942</v>
       </c>
       <c r="D11" t="n">
-        <v>1264.859477222453</v>
+        <v>791.8808681821918</v>
       </c>
       <c r="E11" t="n">
-        <v>879.0712246242083</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="F11" t="n">
-        <v>468.0853198346007</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="G11" t="n">
-        <v>384.7176826889648</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H11" t="n">
-        <v>96.01421500417479</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I11" t="n">
-        <v>87.44598131530327</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J11" t="n">
-        <v>348.4541716219579</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K11" t="n">
-        <v>790.3763077441347</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L11" t="n">
-        <v>1375.521556889991</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>2058.277829428003</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2756.69562063422</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O11" t="n">
-        <v>3402.856474825923</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P11" t="n">
-        <v>3919.838813559875</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q11" t="n">
-        <v>4259.898273094627</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
-        <v>4372.299065765164</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S11" t="n">
-        <v>4281.767315788347</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T11" t="n">
-        <v>4079.585274841429</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U11" t="n">
-        <v>3826.124165684313</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V11" t="n">
-        <v>3495.061278340742</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W11" t="n">
-        <v>3142.292623070628</v>
+        <v>2282.714173966246</v>
       </c>
       <c r="X11" t="n">
-        <v>2768.826864809548</v>
+        <v>1909.248415705166</v>
       </c>
       <c r="Y11" t="n">
-        <v>2378.687532833736</v>
+        <v>1519.109083729354</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5598798369007</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C12" t="n">
-        <v>767.1068505557737</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1724408945224</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9349858890669</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F12" t="n">
-        <v>312.4004279159518</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G12" t="n">
-        <v>176.5012642672694</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H12" t="n">
-        <v>90.48001996731358</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I12" t="n">
-        <v>87.44598131530327</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J12" t="n">
-        <v>224.082824419844</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>535.7717772065984</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>1001.198580189394</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M12" t="n">
-        <v>1563.68657467852</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>2155.470597562256</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2554.407285248501</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2554.407285248501</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
-        <v>2554.407285248501</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2554.407285248501</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S12" t="n">
-        <v>2433.586816095895</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.813805513596</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.7764807874</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.624372555657</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.387015827455</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.535515621923</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.775216856969</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>639.017677370994</v>
+        <v>679.6952191369613</v>
       </c>
       <c r="C13" t="n">
-        <v>470.0814944430871</v>
+        <v>510.7590362090544</v>
       </c>
       <c r="D13" t="n">
-        <v>319.9648550307513</v>
+        <v>360.6423967967187</v>
       </c>
       <c r="E13" t="n">
-        <v>319.9648550307513</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="F13" t="n">
-        <v>173.0749075328409</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G13" t="n">
-        <v>173.0749075328409</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H13" t="n">
-        <v>173.0749075328409</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I13" t="n">
-        <v>87.44598131530327</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J13" t="n">
-        <v>159.5200696770525</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K13" t="n">
-        <v>407.7967738540784</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L13" t="n">
-        <v>781.0319111261392</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M13" t="n">
-        <v>1184.945155046266</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N13" t="n">
-        <v>1584.688861238315</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O13" t="n">
-        <v>1937.900578785902</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P13" t="n">
-        <v>2216.613540128739</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q13" t="n">
-        <v>2326.1448675827</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R13" t="n">
-        <v>2322.736325287763</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S13" t="n">
-        <v>2322.736325287763</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T13" t="n">
-        <v>2102.631581971296</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U13" t="n">
-        <v>1813.549930485629</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V13" t="n">
-        <v>1558.865442279742</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W13" t="n">
-        <v>1269.448272242781</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="X13" t="n">
-        <v>1041.458721344764</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="Y13" t="n">
-        <v>820.6661422012337</v>
+        <v>861.3436839672011</v>
       </c>
     </row>
     <row r="14">
@@ -5276,10 +5276,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5315,10 +5315,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5364,19 +5364,19 @@
         <v>579.1554649516142</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438176</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>874.8686257536381</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C16" t="n">
-        <v>705.9324428257312</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D16" t="n">
-        <v>555.8158034133954</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5479,7 +5479,7 @@
         <v>1205.711814750802</v>
       </c>
       <c r="Y16" t="n">
-        <v>984.9192356072716</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="17">
@@ -5501,22 +5501,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5528,34 +5528,34 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797189</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O18" t="n">
-        <v>2366.028450684176</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P18" t="n">
-        <v>2366.028450684176</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>808.8888553856862</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C19" t="n">
-        <v>639.9526724577793</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D19" t="n">
-        <v>489.8360330454435</v>
+        <v>422.7903292978459</v>
       </c>
       <c r="E19" t="n">
-        <v>489.8360330454435</v>
+        <v>422.7903292978459</v>
       </c>
       <c r="F19" t="n">
-        <v>342.9460855475331</v>
+        <v>275.9003817999355</v>
       </c>
       <c r="G19" t="n">
-        <v>175.7499862624131</v>
+        <v>275.9003817999355</v>
       </c>
       <c r="H19" t="n">
-        <v>175.7499862624131</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y19" t="n">
-        <v>990.5373202159259</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5726,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5744,58 +5744,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5823,31 +5823,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
-        <v>172.349019141113</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>506.2737913123336</v>
+        <v>372.4964262156764</v>
       </c>
       <c r="L21" t="n">
-        <v>506.2737913123336</v>
+        <v>867.8220324314351</v>
       </c>
       <c r="M21" t="n">
-        <v>1103.652278938886</v>
+        <v>1465.200520057987</v>
       </c>
       <c r="N21" t="n">
-        <v>1731.250242493492</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O21" t="n">
-        <v>2283.159972732779</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
         <v>2516.421633107662</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>733.4550657171301</v>
+        <v>961.4446166151475</v>
       </c>
       <c r="C22" t="n">
-        <v>564.5188827892232</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D22" t="n">
-        <v>465.5282911402533</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E22" t="n">
-        <v>317.6151975578602</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F22" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5950,10 +5950,10 @@
         <v>1363.885660588917</v>
       </c>
       <c r="X22" t="n">
-        <v>1135.8961096909</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="Y22" t="n">
-        <v>915.1035305473698</v>
+        <v>1143.093081445387</v>
       </c>
     </row>
     <row r="23">
@@ -5972,19 +5972,19 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
@@ -6002,19 +6002,19 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
         <v>4405.252601474784</v>
@@ -6029,7 +6029,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6060,28 +6060,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M24" t="n">
-        <v>1074.481071167373</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N24" t="n">
-        <v>1702.079034721979</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O24" t="n">
-        <v>2253.988764961266</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P24" t="n">
         <v>2283.159972732779</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>695.5020655703109</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C25" t="n">
-        <v>695.5020655703109</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D25" t="n">
-        <v>545.3854261579752</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E25" t="n">
-        <v>397.4723325755821</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F25" t="n">
-        <v>397.4723325755821</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>230.276233290462</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6172,25 +6172,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="26">
@@ -6212,16 +6212,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168618</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
@@ -6233,37 +6233,37 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
         <v>3094.515198591809</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1074.481071167373</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N27" t="n">
-        <v>1702.07903472198</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O27" t="n">
-        <v>2253.988764961267</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>956.9553291057244</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C28" t="n">
-        <v>788.0191461778176</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D28" t="n">
-        <v>637.9025067654818</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="E28" t="n">
-        <v>489.9894131830887</v>
+        <v>451.6888124356582</v>
       </c>
       <c r="F28" t="n">
-        <v>343.0994656851784</v>
+        <v>451.6888124356582</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000583</v>
+        <v>284.4927131505381</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>142.7808819927362</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6418,16 +6418,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W28" t="n">
-        <v>1405.737459147272</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X28" t="n">
-        <v>1177.747908249255</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y28" t="n">
-        <v>956.9553291057244</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="29">
@@ -6464,7 +6464,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6500,10 +6500,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6537,25 +6537,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L30" t="n">
-        <v>634.5603720565526</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M30" t="n">
-        <v>1231.938859683105</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N30" t="n">
-        <v>1859.536823237711</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P30" t="n">
         <v>2283.159972732779</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>984.9192356072716</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>815.9830526793647</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D31" t="n">
-        <v>665.866413267029</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E31" t="n">
-        <v>517.9533196846359</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F31" t="n">
-        <v>371.0633721867255</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6658,13 +6658,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1205.711814750802</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>984.9192356072716</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6677,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6686,31 +6686,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362688</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6719,7 +6719,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6731,13 +6731,13 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
         <v>3094.515198591809</v>
@@ -6774,22 +6774,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>245.2306927803937</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>245.2306927803937</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M33" t="n">
-        <v>842.6091804069456</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N33" t="n">
-        <v>1470.207143961552</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O33" t="n">
         <v>1859.536823237711</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>866.4638174991043</v>
+        <v>801.6918836311989</v>
       </c>
       <c r="C34" t="n">
-        <v>697.5276345711974</v>
+        <v>632.7557007032921</v>
       </c>
       <c r="D34" t="n">
-        <v>697.5276345711974</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E34" t="n">
-        <v>549.6145409888043</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>1820.203491470209</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V34" t="n">
-        <v>1565.519003264322</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W34" t="n">
-        <v>1276.101833227361</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X34" t="n">
-        <v>1048.112282329344</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y34" t="n">
-        <v>1048.112282329344</v>
+        <v>983.3403484614387</v>
       </c>
     </row>
     <row r="35">
@@ -6917,37 +6917,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6956,28 +6956,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7008,31 +7008,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K36" t="n">
-        <v>429.5088224239596</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>429.5088224239596</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M36" t="n">
-        <v>1026.887310050512</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N36" t="n">
-        <v>1654.485273605118</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O36" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
         <v>2516.421633107662</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319328</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C37" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150025</v>
+        <v>656.964603115003</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942661</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580121</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345483</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7172,19 +7172,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7251,28 +7251,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L39" t="n">
-        <v>710.2486053718725</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M39" t="n">
-        <v>1307.627092998424</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2074.122646505557</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C40" t="n">
         <v>782.5512955656818</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345474</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7366,7 +7366,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
         <v>1483.798285518751</v>
@@ -7391,10 +7391,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
         <v>793.7736536168611</v>
@@ -7412,16 +7412,16 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7485,28 +7485,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L42" t="n">
-        <v>245.2306927803937</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M42" t="n">
-        <v>842.6091804069456</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N42" t="n">
-        <v>1470.207143961552</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O42" t="n">
-        <v>2022.116874200839</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P42" t="n">
-        <v>2445.740023695907</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319321</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C43" t="n">
         <v>782.5512955656814</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150019</v>
+        <v>656.964603115002</v>
       </c>
       <c r="E43" t="n">
-        <v>533.581456494265</v>
+        <v>533.5814564942651</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580109</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345474</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
         <v>483.8255460380729</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7591,28 +7591,28 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X43" t="n">
         <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="44">
@@ -7640,16 +7640,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7667,22 +7667,22 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
         <v>3467.980956852889</v>
@@ -7719,34 +7719,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K45" t="n">
-        <v>429.5088224239596</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>924.8344286397182</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M45" t="n">
-        <v>1522.21291626627</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N45" t="n">
-        <v>2149.810879820877</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O45" t="n">
-        <v>2149.810879820877</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319328</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C46" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7979,7 +7979,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
@@ -7991,13 +7991,13 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O2" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
-        <v>212.3149906599047</v>
+        <v>120.1571251320481</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8058,25 +8058,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>136.6434851901651</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>309.1140387603674</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8219,22 +8219,22 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>220.140412435022</v>
+        <v>54.10995177420503</v>
       </c>
       <c r="M5" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8298,22 +8298,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>306.0684860782001</v>
+        <v>459.2743913378118</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>326.0199209479351</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8541,19 +8541,19 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>224.3355197601774</v>
       </c>
       <c r="O9" t="n">
-        <v>211.0329012241567</v>
+        <v>305.1601501039158</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9176,7 +9176,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -9647,7 +9647,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -9881,7 +9881,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -10112,13 +10112,13 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -22565,7 +22565,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>156.4277435039525</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22592,13 +22592,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>61.80474195134735</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>177.0734480055617</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>1.599718443849507</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22607,7 +22607,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -22702,31 +22702,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3621190341859</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.6360325334498</v>
+        <v>9.108407095420205</v>
       </c>
       <c r="I4" t="n">
-        <v>136.5389299027613</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>48.8987551905805</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22750,7 +22750,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>149.0175444330455</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -22762,16 +22762,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>112.9611598800144</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>198.6263580943329</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23267,10 +23267,10 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>327.5293412123017</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23318,7 +23318,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>99.44363811957498</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23422,19 +23422,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.6407489543147</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>141.3314876415042</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>68.24402924248574</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>183.0584918120253</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23476,13 +23476,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>199.8929066791155</v>
       </c>
     </row>
     <row r="14">
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>70.88187642684009</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>152.1477127454056</v>
       </c>
     </row>
     <row r="17">
@@ -23902,13 +23902,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>41.29766760034541</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1518463362687612</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23972,7 +23972,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -24127,19 +24127,19 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>135.850318211895</v>
       </c>
       <c r="D22" t="n">
-        <v>50.61478728573218</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,10 +24361,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24373,16 +24373,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>86.46557462472418</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,13 +24412,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>99.26785128072183</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>32.79125956324884</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24658,10 +24658,10 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>258.8387309000593</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>63.36835372228754</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>112.6104454096922</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24898,7 +24898,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25078,7 +25078,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>72.44497470121469</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25090,7 +25090,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>130.4994612393479</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1158993.315126033</v>
+        <v>1276531.494243323</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1154344.085514707</v>
+        <v>1012650.825579352</v>
       </c>
     </row>
     <row r="6">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>197998.0498168509</v>
+        <v>224415.4372624255</v>
       </c>
       <c r="C2" t="n">
         <v>225786.4867126781</v>
@@ -26320,7 +26320,7 @@
         <v>225786.4867126779</v>
       </c>
       <c r="E2" t="n">
-        <v>213965.7918795811</v>
+        <v>187548.4044340064</v>
       </c>
       <c r="F2" t="n">
         <v>221965.3149147516</v>
@@ -26332,10 +26332,10 @@
         <v>221965.3149147516</v>
       </c>
       <c r="I2" t="n">
-        <v>221965.3149147516</v>
+        <v>221965.3149147517</v>
       </c>
       <c r="J2" t="n">
-        <v>221965.3149147516</v>
+        <v>221965.3149147517</v>
       </c>
       <c r="K2" t="n">
         <v>221965.3149147517</v>
@@ -26350,7 +26350,7 @@
         <v>225786.486712678</v>
       </c>
       <c r="O2" t="n">
-        <v>225786.4867126781</v>
+        <v>225786.486712678</v>
       </c>
       <c r="P2" t="n">
         <v>225786.4867126781</v>
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>550717.0470775617</v>
+        <v>717704.2671588508</v>
       </c>
       <c r="C3" t="n">
-        <v>222864.8001999041</v>
+        <v>65064.00612545513</v>
       </c>
       <c r="D3" t="n">
         <v>291685.0095230266</v>
       </c>
       <c r="E3" t="n">
-        <v>431755.8358230501</v>
+        <v>182072.9798171905</v>
       </c>
       <c r="F3" t="n">
-        <v>73931.92170314016</v>
+        <v>317694.1318125472</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26396,10 +26396,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132190.0195912091</v>
+        <v>66979.98378704657</v>
       </c>
       <c r="N3" t="n">
-        <v>19504.39955921653</v>
+        <v>83595.25861206533</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189181.2582454901</v>
+        <v>209638.3622618921</v>
       </c>
       <c r="C4" t="n">
         <v>198312.6346601523</v>
@@ -26424,40 +26424,40 @@
         <v>133113.8635467443</v>
       </c>
       <c r="E4" t="n">
-        <v>7466.053672831435</v>
+        <v>7330.627242042245</v>
       </c>
       <c r="F4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="G4" t="n">
-        <v>7507.368461719692</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="H4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719658</v>
       </c>
       <c r="I4" t="n">
-        <v>7507.368461719674</v>
+        <v>7507.368461719649</v>
       </c>
       <c r="J4" t="n">
-        <v>7507.368461719697</v>
+        <v>7507.368461719657</v>
       </c>
       <c r="K4" t="n">
-        <v>7507.368461719678</v>
+        <v>7507.36846171968</v>
       </c>
       <c r="L4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="M4" t="n">
-        <v>15498.22772481314</v>
+        <v>15498.22772481321</v>
       </c>
       <c r="N4" t="n">
-        <v>15498.22772481314</v>
+        <v>15498.22772481317</v>
       </c>
       <c r="O4" t="n">
-        <v>15498.22772481313</v>
+        <v>15498.22772481317</v>
       </c>
       <c r="P4" t="n">
-        <v>15498.2277248131</v>
+        <v>15498.2277248132</v>
       </c>
     </row>
     <row r="5">
@@ -26467,16 +26467,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>80177.50742093755</v>
+        <v>83955.29103092631</v>
       </c>
       <c r="C5" t="n">
-        <v>85512.93677905219</v>
+        <v>85512.93677905218</v>
       </c>
       <c r="D5" t="n">
         <v>92937.77243984472</v>
       </c>
       <c r="E5" t="n">
-        <v>94871.09481263752</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-622077.7629271385</v>
+        <v>-786894.9472751551</v>
       </c>
       <c r="C6" t="n">
-        <v>-280903.8849264304</v>
+        <v>-123103.0908519815</v>
       </c>
       <c r="D6" t="n">
         <v>-291950.1587969377</v>
       </c>
       <c r="E6" t="n">
-        <v>-320127.1924289379</v>
+        <v>-76509.16211642577</v>
       </c>
       <c r="F6" t="n">
-        <v>39403.49492598469</v>
+        <v>-204393.4531088581</v>
       </c>
       <c r="G6" t="n">
-        <v>113335.4166291249</v>
+        <v>113300.6787036893</v>
       </c>
       <c r="H6" t="n">
-        <v>113335.4166291249</v>
+        <v>113300.6787036892</v>
       </c>
       <c r="I6" t="n">
-        <v>113335.4166291248</v>
+        <v>113300.6787036892</v>
       </c>
       <c r="J6" t="n">
-        <v>-54269.76118085785</v>
+        <v>-54304.4991062933</v>
       </c>
       <c r="K6" t="n">
-        <v>113335.4166291249</v>
+        <v>113300.6787036892</v>
       </c>
       <c r="L6" t="n">
-        <v>113335.4166291249</v>
+        <v>113300.6787036892</v>
       </c>
       <c r="M6" t="n">
-        <v>-25065.87645725957</v>
+        <v>40144.15934690284</v>
       </c>
       <c r="N6" t="n">
-        <v>87619.74357473297</v>
+        <v>23528.88452188407</v>
       </c>
       <c r="O6" t="n">
-        <v>107124.1431339496</v>
+        <v>107124.1431339495</v>
       </c>
       <c r="P6" t="n">
-        <v>107124.1431339496</v>
+        <v>107124.1431339495</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="3">
@@ -26735,16 +26735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>348.7316343695035</v>
+        <v>522.024460515777</v>
       </c>
       <c r="C3" t="n">
         <v>593.4761003380651</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="E3" t="n">
-        <v>1303.309587752616</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26787,22 +26787,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>1093.074766441291</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26811,7 +26811,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26938,7 +26938,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26957,19 +26957,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>348.7316343695035</v>
+        <v>522.024460515777</v>
       </c>
       <c r="C3" t="n">
-        <v>244.7444659685615</v>
+        <v>71.45163982228804</v>
       </c>
       <c r="D3" t="n">
-        <v>340.5887917794741</v>
+        <v>340.5887917794743</v>
       </c>
       <c r="E3" t="n">
-        <v>369.2446956350769</v>
+        <v>155.711808475759</v>
       </c>
       <c r="F3" t="n">
-        <v>64.6659125890576</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>452.4899343412519</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="F4" t="n">
-        <v>79.63352165835749</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000392</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>452.4899343412519</v>
+        <v>190.8166233022534</v>
       </c>
       <c r="N4" t="n">
-        <v>79.63352165835749</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>452.4899343412519</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="N4" t="n">
-        <v>79.63352165835749</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27391,10 +27391,10 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>171.9951993587032</v>
+        <v>11.25652961870946</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27424,16 +27424,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>18.04351384919318</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>161.1984318214081</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.177765644153</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27464,7 +27464,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>90.49589419749502</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27524,7 +27524,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>138.8952726697626</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27534,31 +27534,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.0496237739221</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>127.1413451668289</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>26.80534028993183</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,28 +27579,28 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>33.50356646189935</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>134.9666211851853</v>
       </c>
       <c r="S4" t="n">
-        <v>213.0572776585077</v>
+        <v>207.6113375319109</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2847278842578</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>27.08329729470424</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>138.2961718310983</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27673,13 +27673,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>302.8016685100217</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27707,13 +27707,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>70.53999045278843</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>45.44580843958667</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27743,7 +27743,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>25.09418201320157</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -27777,7 +27777,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27786,7 +27786,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.9207765545704</v>
+        <v>128.190846962777</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T7" t="n">
         <v>223.3729047207587</v>
       </c>
       <c r="U7" t="n">
-        <v>184.3295965925287</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>97.86921978857663</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27865,7 +27865,7 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27913,13 +27913,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>100.1390814982249</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28062,22 +28062,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>251.4836535550764</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>145.7334787857882</v>
       </c>
     </row>
     <row r="11">
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30049,7 +30049,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="38">
@@ -30223,10 +30223,10 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="41">
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30469,7 +30469,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="44">
@@ -30757,7 +30757,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.401936218570867</v>
+        <v>2.098590796043323</v>
       </c>
       <c r="H2" t="n">
-        <v>14.3575792984389</v>
+        <v>21.49219298997869</v>
       </c>
       <c r="I2" t="n">
-        <v>54.04814606645342</v>
+        <v>80.90592166446029</v>
       </c>
       <c r="J2" t="n">
-        <v>118.9875841309293</v>
+        <v>178.1152705756822</v>
       </c>
       <c r="K2" t="n">
-        <v>178.3315442630341</v>
+        <v>266.9486189721961</v>
       </c>
       <c r="L2" t="n">
-        <v>221.2360498121223</v>
+        <v>331.173367046607</v>
       </c>
       <c r="M2" t="n">
-        <v>246.167733039132</v>
+        <v>368.4941811157424</v>
       </c>
       <c r="N2" t="n">
-        <v>250.1509843201465</v>
+        <v>374.4568022150006</v>
       </c>
       <c r="O2" t="n">
-        <v>236.2104810467324</v>
+        <v>353.5889399868448</v>
       </c>
       <c r="P2" t="n">
-        <v>201.6001806507641</v>
+        <v>301.7799797095252</v>
       </c>
       <c r="Q2" t="n">
-        <v>151.3933398231949</v>
+        <v>226.6241968262236</v>
       </c>
       <c r="R2" t="n">
-        <v>88.06437598980233</v>
+        <v>131.8256040919565</v>
       </c>
       <c r="S2" t="n">
-        <v>31.94662158068367</v>
+        <v>47.82163776483728</v>
       </c>
       <c r="T2" t="n">
-        <v>6.136975796793975</v>
+        <v>9.186581209679652</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1121548974856694</v>
+        <v>0.1678872636834658</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7501020060023283</v>
+        <v>1.122845066015068</v>
       </c>
       <c r="H3" t="n">
-        <v>7.244406215864593</v>
+        <v>10.84431945335605</v>
       </c>
       <c r="I3" t="n">
-        <v>25.82588046981701</v>
+        <v>38.65935863253632</v>
       </c>
       <c r="J3" t="n">
-        <v>70.86818996182525</v>
+        <v>106.0842349431166</v>
       </c>
       <c r="K3" t="n">
-        <v>121.1250243639813</v>
+        <v>181.3148543661261</v>
       </c>
       <c r="L3" t="n">
-        <v>162.867543013795</v>
+        <v>243.8001973380523</v>
       </c>
       <c r="M3" t="n">
-        <v>190.0587407313794</v>
+        <v>284.5033309810984</v>
       </c>
       <c r="N3" t="n">
-        <v>195.0890300611056</v>
+        <v>292.0332875860855</v>
       </c>
       <c r="O3" t="n">
-        <v>178.4683487702119</v>
+        <v>267.1534048075411</v>
       </c>
       <c r="P3" t="n">
-        <v>143.2365839356551</v>
+        <v>214.4141600182632</v>
       </c>
       <c r="Q3" t="n">
-        <v>95.74986308198143</v>
+        <v>143.3301877250111</v>
       </c>
       <c r="R3" t="n">
-        <v>46.57212279372353</v>
+        <v>69.71488927416361</v>
       </c>
       <c r="S3" t="n">
-        <v>13.93281576938534</v>
+        <v>20.85635462532372</v>
       </c>
       <c r="T3" t="n">
-        <v>3.023437471562015</v>
+        <v>4.525853577490556</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04934881618436373</v>
+        <v>0.07387138592204395</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6288603242728751</v>
+        <v>0.941355584536647</v>
       </c>
       <c r="H4" t="n">
-        <v>5.591139973989748</v>
+        <v>8.369506924334923</v>
       </c>
       <c r="I4" t="n">
-        <v>18.91154502449702</v>
+        <v>28.30912976042936</v>
       </c>
       <c r="J4" t="n">
-        <v>44.46042492609227</v>
+        <v>66.55383982674094</v>
       </c>
       <c r="K4" t="n">
-        <v>73.06213585643039</v>
+        <v>109.3684033670759</v>
       </c>
       <c r="L4" t="n">
-        <v>93.49437948326002</v>
+        <v>139.9539020864757</v>
       </c>
       <c r="M4" t="n">
-        <v>98.57671428579259</v>
+        <v>147.56176676514</v>
       </c>
       <c r="N4" t="n">
-        <v>96.2327803498665</v>
+        <v>144.0530777682308</v>
       </c>
       <c r="O4" t="n">
-        <v>88.88654837995151</v>
+        <v>133.0563329852345</v>
       </c>
       <c r="P4" t="n">
-        <v>76.05779776478479</v>
+        <v>113.8526790606868</v>
       </c>
       <c r="Q4" t="n">
-        <v>52.65847678979503</v>
+        <v>78.82569353788233</v>
       </c>
       <c r="R4" t="n">
-        <v>28.275846944124</v>
+        <v>42.32677019198414</v>
       </c>
       <c r="S4" t="n">
-        <v>10.95932037846456</v>
+        <v>16.40526050506138</v>
       </c>
       <c r="T4" t="n">
-        <v>2.68694865825683</v>
+        <v>4.022155679383855</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03430147223306595</v>
+        <v>0.05134666824745353</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
         <v>38.45624955336179</v>
@@ -31528,16 +31528,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
         <v>539.9786897190645</v>
@@ -31549,7 +31549,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
         <v>16.4376645838976</v>
@@ -31598,7 +31598,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31610,16 +31610,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
         <v>256.4624964168761</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31704,7 +31704,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
         <v>29.35413767523479</v>
@@ -31713,7 +31713,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.239435528653729</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>53.65836910782502</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>201.9933382184231</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>444.6905412000748</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>666.4758471279873</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>826.8222221880241</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>919.9990337707198</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>934.8855799665073</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>882.7859429284567</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>753.4373783148177</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>565.8000934449058</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>329.1216920267951</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>119.393637109197</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
-        <v>22.93562902668171</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4191548422922983</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.803345151015061</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H12" t="n">
-        <v>27.0744123795402</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>96.5186817345098</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>264.8546399035765</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
-        <v>452.6787650215856</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>608.6824636008799</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>710.3037253251757</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>729.1033513598338</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>545.5625956426722</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>52.07090664275779</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>11.29944821834579</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1844306020404646</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.350230404144062</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>20.8956848659354</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>70.67783797189598</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
-        <v>166.1612895729851</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>273.0540414996464</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>349.4151639033817</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>368.409298715055</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>359.649349026882</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>332.1943847602898</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
-        <v>284.2496845157507</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q13" t="n">
-        <v>196.799747750645</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>105.6749052626957</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>40.95810622494695</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>10.04189354497917</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1281943856805853</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32084,10 +32084,10 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>244.0266243181833</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>300.768778117042</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
@@ -32099,7 +32099,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32309,16 +32309,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>360.3952288121461</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32330,13 +32330,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>328.9038320421819</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,16 +32546,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>204.3779992811859</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>268.1779244693588</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32564,13 +32564,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
@@ -32783,19 +32783,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>555.1777416630679</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
@@ -32804,7 +32804,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>163.4402738502018</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>375.599612848529</v>
@@ -33032,22 +33032,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>301.1823051500301</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>200.4500263280935</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,16 +33257,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>531.8166820790245</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33275,10 +33275,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>616.375287159485</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
@@ -33494,16 +33494,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>347.4623967873087</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33512,7 +33512,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>535.8585467435948</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
@@ -33731,7 +33731,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
@@ -33740,22 +33740,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>585.3368606136115</v>
+        <v>485.1127032082914</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
@@ -33971,13 +33971,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>270.9716933356906</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33989,13 +33989,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>382.1329742631541</v>
       </c>
       <c r="Q39" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34205,16 +34205,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34226,10 +34226,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>248.3870916262918</v>
+        <v>328.9038320421819</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34442,7 +34442,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>126.8376266666667</v>
@@ -34463,13 +34463,13 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>268.6704608606964</v>
+        <v>543.0832917018711</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>107.0382947763167</v>
+        <v>166.1659812210696</v>
       </c>
       <c r="K2" t="n">
-        <v>282.3871057892183</v>
+        <v>46.85876792721552</v>
       </c>
       <c r="L2" t="n">
-        <v>403.1308493925856</v>
+        <v>513.0681666270702</v>
       </c>
       <c r="M2" t="n">
-        <v>465.3350333046918</v>
+        <v>587.6614813813022</v>
       </c>
       <c r="N2" t="n">
-        <v>458.0848451355398</v>
+        <v>582.3906630303939</v>
       </c>
       <c r="O2" t="n">
-        <v>386.912450887791</v>
+        <v>123.490728565158</v>
       </c>
       <c r="P2" t="n">
-        <v>292.1658930669772</v>
+        <v>392.3456921257383</v>
       </c>
       <c r="Q2" t="n">
-        <v>141.40264060865</v>
+        <v>124.4756320838222</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>70.12159863556739</v>
+        <v>105.3376436168587</v>
       </c>
       <c r="K3" t="n">
-        <v>247.7488224022009</v>
+        <v>180.1169005819322</v>
       </c>
       <c r="L3" t="n">
-        <v>395.15350853738</v>
+        <v>476.0861628616373</v>
       </c>
       <c r="M3" t="n">
-        <v>357.0387455697285</v>
+        <v>608.07436080908</v>
       </c>
       <c r="N3" t="n">
-        <v>543.0896923213259</v>
+        <v>640.0339498463057</v>
       </c>
       <c r="O3" t="n">
-        <v>429.7344236024969</v>
+        <v>124.5571603630967</v>
       </c>
       <c r="P3" t="n">
-        <v>327.7249451612621</v>
+        <v>398.9025212438702</v>
       </c>
       <c r="Q3" t="n">
-        <v>165.845376731809</v>
+        <v>3.348413638989598</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,22 +34857,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>50.79264403054754</v>
+        <v>87.09891154119302</v>
       </c>
       <c r="L4" t="n">
-        <v>121.0844047435762</v>
+        <v>167.5439273467919</v>
       </c>
       <c r="M4" t="n">
-        <v>138.1605912476332</v>
+        <v>187.1456437269806</v>
       </c>
       <c r="N4" t="n">
-        <v>140.3649527290951</v>
+        <v>188.1852501474594</v>
       </c>
       <c r="O4" t="n">
-        <v>113.4716762939912</v>
+        <v>157.6414608992742</v>
       </c>
       <c r="P4" t="n">
-        <v>73.33635702967828</v>
+        <v>111.1312383255803</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34939,22 +34939,22 @@
         <v>407.5425384040863</v>
       </c>
       <c r="L5" t="n">
-        <v>360.8764284362879</v>
+        <v>194.8459677754709</v>
       </c>
       <c r="M5" t="n">
         <v>638.0987989730422</v>
       </c>
       <c r="N5" t="n">
-        <v>196.2971847393761</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O5" t="n">
-        <v>552.6880856233105</v>
+        <v>171.8879043605652</v>
       </c>
       <c r="P5" t="n">
-        <v>111.8528537874005</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q5" t="n">
-        <v>247.6524856312129</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35018,22 +35018,22 @@
         <v>332.7559639452625</v>
       </c>
       <c r="L6" t="n">
-        <v>509.4561008748672</v>
+        <v>138.615755571408</v>
       </c>
       <c r="M6" t="n">
-        <v>487.3789268404272</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="N6" t="n">
-        <v>200.663375406732</v>
+        <v>526.6832963546672</v>
       </c>
       <c r="O6" t="n">
         <v>554.9858674269929</v>
       </c>
       <c r="P6" t="n">
-        <v>428.2502711927643</v>
+        <v>109.7875025528271</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.96660727472423</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35173,19 +35173,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
         <v>308.745693963795</v>
@@ -35194,7 +35194,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091742</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K9" t="n">
         <v>186.5874962434848</v>
@@ -35258,16 +35258,16 @@
         <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>615.5326193530514</v>
       </c>
       <c r="O9" t="n">
-        <v>546.4575832202797</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="P9" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
         <v>116.4807223308546</v>
@@ -35328,13 +35328,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
@@ -35343,13 +35343,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>263.6446366733886</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>446.3859960830068</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>591.0558072180368</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>689.6528005434471</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>705.4725163699163</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>652.68773150677</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>522.2043825595481</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>343.4944035704563</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>113.536154212663</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>138.0170132369098</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
-        <v>314.8373260472266</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>470.1280838210058</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>568.1696914031575</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>597.7616392765005</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>402.9663511982278</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>72.80210945631237</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
-        <v>250.7845496737635</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
-        <v>377.0051891636979</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M13" t="n">
-        <v>407.9931756768956</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N13" t="n">
-        <v>403.7815214061105</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>356.7795126743295</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
-        <v>281.5282437806442</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>110.6377044989506</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35732,10 +35732,10 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>101.892590396165</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>169.4270660337087</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
@@ -35747,7 +35747,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35896,7 +35896,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243171</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
@@ -35957,16 +35957,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>222.5537898377871</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35978,13 +35978,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36127,7 +36127,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902943</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
@@ -36194,16 +36194,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>77.54037261451921</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>130.3364854949998</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36212,13 +36212,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>37.00975247789211</v>
@@ -36367,7 +36367,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
         <v>696.488651224316</v>
@@ -36376,7 +36376,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R23" t="n">
         <v>129.8660843902404</v>
@@ -36431,19 +36431,19 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>416.6233618831937</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
@@ -36452,7 +36452,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>29.46586643587157</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>235.6178387625075</v>
@@ -36601,7 +36601,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902961</v>
+        <v>735.3001107902943</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
@@ -36680,22 +36680,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>159.0482712280117</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>66.47561891376326</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
@@ -36905,16 +36905,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>393.2623022991504</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,10 +36923,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>473.7790427150405</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
@@ -37142,16 +37142,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>208.9080170074345</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,7 +37160,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>393.2623022991504</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -37388,22 +37388,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>442.7406161691671</v>
+        <v>342.516458763847</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>37.00975247789211</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N37" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P37" t="n">
-        <v>319.9164207986646</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37619,13 +37619,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>132.4173135558164</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37637,13 +37637,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>248.1585668488238</v>
       </c>
       <c r="Q39" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P40" t="n">
-        <v>319.9164207986646</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37853,16 +37853,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37874,10 +37874,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>108.4053175402703</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986646</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -38111,13 +38111,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>134.6960534463662</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P46" t="n">
-        <v>319.9164207986646</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
